--- a/DataBase/Sheets/Products.xlsx
+++ b/DataBase/Sheets/Products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>ProductsName</t>
   </si>
@@ -52,55 +52,21 @@
     <t>ывф</t>
   </si>
   <si>
-    <t>Nvb</t>
-  </si>
-  <si>
-    <t>Hc</t>
-  </si>
-  <si>
-    <t>Jch</t>
-  </si>
-  <si>
-    <t>Fjg</t>
-  </si>
-  <si>
-    <t>Хуй</t>
-  </si>
-  <si>
-    <t>Чарик</t>
-  </si>
-  <si>
-    <t>Huita</t>
+    <t>Charon baby</t>
   </si>
   <si>
     <t>фыв</t>
   </si>
   <si>
-    <t>Igg</t>
-  </si>
-  <si>
-    <t>Yf</t>
-  </si>
-  <si>
-    <t>Ghc</t>
-  </si>
-  <si>
-    <t>Fug</t>
-  </si>
-  <si>
-    <t>Хулан</t>
-  </si>
-  <si>
-    <t>Фулл сток</t>
-  </si>
-  <si>
-    <t>Huita polneishia</t>
+    <t>Состояние 4/5
+Работоспособность 5/5
+Испар новый</t>
   </si>
   <si>
     <t>non</t>
   </si>
   <si>
-    <t>|AgACAgIAAxkBAAIRU2P4r-tgTiMCV-Kn54arSgvE-30FAAL8wjEbJ4DAS9MM3gcHk3qVAQADAgADeQADLgQ|AgACAgIAAxkBAAIRVGP4r-vKfxhq5CG3kbz7dg22xjf3AAL9wjEbJ4DASwmWVPa4IptDAQADAgADeQADLgQ|</t>
+    <t>|AgACAgIAAxkBAAMlY_miM8jllYi44cKUgeo0VAjU6pQAArjGMRtmcMlLr0L_Tk2yZj8BAAMCAAN5AAMuBA|AgACAgIAAxkBAAMmY_miM2Oed8xEb2zDCfhdtHMwSFAAArnGMRtmcMlLnJO5cjMvOLgBAAMCAAN5AAMuBA|AgACAgIAAxkBAAMnY_miM2OPY6i9GTHGNIWqgulXJh4AArrGMRtmcMlLPsxNcZsMb6oBAAMCAAN5AAMuBA|</t>
   </si>
   <si>
     <t>фвы</t>
@@ -109,24 +75,15 @@
     <t>ыфв</t>
   </si>
   <si>
-    <t>Pioneer4you</t>
-  </si>
-  <si>
     <t>Smoant</t>
   </si>
   <si>
-    <t>Pioneer4you IPV6X 200W</t>
-  </si>
-  <si>
     <t>Charon Baby</t>
   </si>
   <si>
     <t>Moderated</t>
   </si>
   <si>
-    <t>moderating</t>
-  </si>
-  <si>
     <t>asd</t>
   </si>
   <si>
@@ -137,12 +94,6 @@
   </si>
   <si>
     <t>Боксмоды/Подмоды</t>
-  </si>
-  <si>
-    <t>Мехмоды</t>
-  </si>
-  <si>
-    <t>Жидкости</t>
   </si>
 </sst>
 </file>
@@ -500,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,34 +500,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -587,262 +538,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>762129545</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3">
-        <v>1660528172</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
       <c r="I3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>1660528172</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>1660528172</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>1660528172</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>762129545</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8">
-        <v>6000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8">
-        <v>762129545</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>5000000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>1660528172</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Sheets/Products.xlsx
+++ b/DataBase/Sheets/Products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>ProductsName</t>
   </si>
@@ -49,48 +49,31 @@
     <t>ProdType</t>
   </si>
   <si>
-    <t>ывф</t>
-  </si>
-  <si>
-    <t>Charon baby</t>
-  </si>
-  <si>
-    <t>фыв</t>
-  </si>
-  <si>
-    <t>Состояние 4/5
-Работоспособность 5/5
-Испар новый</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>|AgACAgIAAxkBAAMlY_miM8jllYi44cKUgeo0VAjU6pQAArjGMRtmcMlLr0L_Tk2yZj8BAAMCAAN5AAMuBA|AgACAgIAAxkBAAMmY_miM2Oed8xEb2zDCfhdtHMwSFAAArnGMRtmcMlLnJO5cjMvOLgBAAMCAAN5AAMuBA|AgACAgIAAxkBAAMnY_miM2OPY6i9GTHGNIWqgulXJh4AArrGMRtmcMlLPsxNcZsMb6oBAAMCAAN5AAMuBA|</t>
-  </si>
-  <si>
-    <t>фвы</t>
-  </si>
-  <si>
-    <t>ыфв</t>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>Чарик тест</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>|AgACAgIAAxkBAAIEKmP7BKInjL9Wt7DAh9wvJLoBqt94AAIxwzEbJfPZSwVp_joJ3PybAQADAgADeQADLgQ|AgACAgIAAxkBAAIEK2P7BKL8bZt0lYZEou-8a7X02t0kAAIywzEbJfPZSyGZ3HX3MdNHAQADAgADeQADLgQ|AgACAgIAAxkBAAIELGP7BKI7KxEI34bX3C_ANwP532BRAAIzwzEbJfPZS7fTFyVgXFHwAQADAgADeQADLgQ|</t>
+  </si>
+  <si>
+    <t>ads</t>
   </si>
   <si>
     <t>Smoant</t>
   </si>
   <si>
-    <t>Charon Baby</t>
+    <t>charon Baby +</t>
   </si>
   <si>
     <t>Moderated</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
     <t>Уссурийск</t>
-  </si>
-  <si>
-    <t>ads</t>
   </si>
   <si>
     <t>Боксмоды/Подмоды</t>
@@ -500,34 +483,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -538,34 +521,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1500</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>1660528172</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
-        <v>762129545</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Sheets/Products.xlsx
+++ b/DataBase/Sheets/Products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>ProductsName</t>
   </si>
@@ -49,34 +49,13 @@
     <t>ProdType</t>
   </si>
   <si>
+    <t>UserName2</t>
+  </si>
+  <si>
     <t>asd</t>
   </si>
   <si>
-    <t>Чарик тест</t>
-  </si>
-  <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>|AgACAgIAAxkBAAIEKmP7BKInjL9Wt7DAh9wvJLoBqt94AAIxwzEbJfPZSwVp_joJ3PybAQADAgADeQADLgQ|AgACAgIAAxkBAAIEK2P7BKL8bZt0lYZEou-8a7X02t0kAAIywzEbJfPZSyGZ3HX3MdNHAQADAgADeQADLgQ|AgACAgIAAxkBAAIELGP7BKI7KxEI34bX3C_ANwP532BRAAIzwzEbJfPZS7fTFyVgXFHwAQADAgADeQADLgQ|</t>
-  </si>
-  <si>
     <t>ads</t>
-  </si>
-  <si>
-    <t>Smoant</t>
-  </si>
-  <si>
-    <t>charon Baby +</t>
-  </si>
-  <si>
-    <t>Moderated</t>
-  </si>
-  <si>
-    <t>Уссурийск</t>
-  </si>
-  <si>
-    <t>Боксмоды/Подмоды</t>
   </si>
 </sst>
 </file>
@@ -434,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,81 +453,49 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>1500</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>1660528172</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Sheets/Products.xlsx
+++ b/DataBase/Sheets/Products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>ProductsName</t>
   </si>
@@ -55,7 +55,34 @@
     <t>asd</t>
   </si>
   <si>
+    <t>Чарик</t>
+  </si>
+  <si>
+    <t>Не бит не крашен</t>
+  </si>
+  <si>
+    <t>|AgACAgIAAxkBAAIGkWP9vCOhhVxXHghTX4MThL3xBIZUAAJ_wzEbrAXwSwTfaqNntO-tAQADAgADeQADLgQ|AgACAgIAAxkBAAIGkmP9vCMkCoqyCZ_dupbcEmq8jJZXAAKAwzEbrAXwS2Io9QiPYU7AAQADAgADeQADLgQ|AgACAgIAAxkBAAIGk2P9vCP_uTnj3EVywE_UDFCSof3tAAKBwzEbrAXwSzkipB865x-nAQADAgADeQADLgQ|</t>
+  </si>
+  <si>
     <t>ads</t>
+  </si>
+  <si>
+    <t>Smoant</t>
+  </si>
+  <si>
+    <t>Charon Baby</t>
+  </si>
+  <si>
+    <t>Moderated</t>
+  </si>
+  <si>
+    <t>Уссурийск</t>
+  </si>
+  <si>
+    <t>Боксмоды/Подмоды</t>
+  </si>
+  <si>
+    <t>Boba9999999</t>
   </si>
 </sst>
 </file>
@@ -413,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -496,6 +523,47 @@
       </c>
       <c r="M2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1660528172</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Sheets/Products.xlsx
+++ b/DataBase/Sheets/Products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>ProductsName</t>
   </si>
@@ -55,34 +55,34 @@
     <t>asd</t>
   </si>
   <si>
-    <t>Чарик</t>
-  </si>
-  <si>
-    <t>Не бит не крашен</t>
-  </si>
-  <si>
-    <t>|AgACAgIAAxkBAAIGkWP9vCOhhVxXHghTX4MThL3xBIZUAAJ_wzEbrAXwSwTfaqNntO-tAQADAgADeQADLgQ|AgACAgIAAxkBAAIGkmP9vCMkCoqyCZ_dupbcEmq8jJZXAAKAwzEbrAXwS2Io9QiPYU7AAQADAgADeQADLgQ|AgACAgIAAxkBAAIGk2P9vCP_uTnj3EVywE_UDFCSof3tAAKBwzEbrAXwSzkipB865x-nAQADAgADeQADLgQ|</t>
+    <t>щ9шщлш\</t>
+  </si>
+  <si>
+    <t>ultra salt haski</t>
+  </si>
+  <si>
+    <t>щллщлб\</t>
+  </si>
+  <si>
+    <t>Уносит с первой тяги</t>
+  </si>
+  <si>
+    <t>non</t>
   </si>
   <si>
     <t>ads</t>
   </si>
   <si>
-    <t>Smoant</t>
-  </si>
-  <si>
-    <t>Charon Baby</t>
-  </si>
-  <si>
     <t>Moderated</t>
   </si>
   <si>
     <t>Уссурийск</t>
   </si>
   <si>
-    <t>Боксмоды/Подмоды</t>
-  </si>
-  <si>
-    <t>Boba9999999</t>
+    <t>Жидкости</t>
+  </si>
+  <si>
+    <t>benefot</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -533,25 +533,25 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>1200</v>
+        <v>999</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>1660528172</v>
+        <v>762129545</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -563,6 +563,47 @@
         <v>21</v>
       </c>
       <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>762129545</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
         <v>22</v>
       </c>
     </row>
